--- a/Data/Config.xlsx
+++ b/Data/Config.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20366"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\abdabbabi\Documents\UiPath\Fnac_Settlement\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\abdabbabi\Documents\UiPath\Settlement_client\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21BF7984-22D4-4845-B5F8-C2A219D7F40E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11A28927-8B7B-4F0B-BEB9-06D9F3BD5EBE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="18585" windowHeight="5100" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="57">
   <si>
     <t>Name</t>
   </si>
@@ -167,35 +167,41 @@
     <t>a.dabbabi@humans4help.com</t>
   </si>
   <si>
-    <t>C:\Users\abdabbabi\Desktop\Nouveau dossier</t>
-  </si>
-  <si>
     <t>pathExecSettlementClient</t>
   </si>
   <si>
     <t>C:\Program Files (x86)\Eventim\SettlementClient\SettlementClient.exe</t>
   </si>
   <si>
+    <t>Settelement_Credentials1</t>
+  </si>
+  <si>
+    <t>C:\Users\abdabbabi\Desktop\SettlementClient\FICHIER INPUT RPA PROMOTER2 - Copie.xlsx</t>
+  </si>
+  <si>
     <t>Settelement_Credentials</t>
   </si>
   <si>
-    <t>Settelement_Credentials1</t>
-  </si>
-  <si>
-    <t>SettlementClient</t>
-  </si>
-  <si>
-    <t>C:\Users\abdabbabi\Desktop\SettlementClient\FICHIER INPUT RPA PROMOTER2 - Copie.xlsx</t>
-  </si>
-  <si>
-    <t>C:\Users\abdabbabi\Desktop\SettlementClient\Rapport</t>
+    <t>TDL_mail_credential</t>
+  </si>
+  <si>
+    <t>TDL_mail_credential_co</t>
+  </si>
+  <si>
+    <t>settlement_deuxieme_exec</t>
+  </si>
+  <si>
+    <t>W:\SettlementProcess\Data\Output\Rapport</t>
+  </si>
+  <si>
+    <t>W:\SettlementProcess\Data\Screenshot</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -227,6 +233,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF464E55"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -248,7 +260,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -259,6 +271,7 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -576,15 +589,15 @@
   <dimension ref="A1:Z998"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="43.54296875" customWidth="1"/>
+    <col min="1" max="1" width="43.5703125" customWidth="1"/>
     <col min="2" max="2" width="43" customWidth="1"/>
-    <col min="3" max="3" width="81.453125" customWidth="1"/>
-    <col min="4" max="26" width="8.7265625" customWidth="1"/>
+    <col min="3" max="3" width="81.42578125" customWidth="1"/>
+    <col min="4" max="26" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="14.25" customHeight="1">
@@ -626,13 +639,13 @@
         <v>22</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:26" ht="43.5">
+    <row r="3" spans="1:26" ht="45">
       <c r="A3" s="2" t="s">
         <v>29</v>
       </c>
@@ -642,7 +655,7 @@
       </c>
     </row>
     <row r="4" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="5" spans="1:26" ht="29">
+    <row r="5" spans="1:26" ht="30">
       <c r="A5" t="s">
         <v>19</v>
       </c>
@@ -655,13 +668,20 @@
     </row>
     <row r="6" spans="1:26" ht="14.25" customHeight="1">
       <c r="A6" t="s">
+        <v>49</v>
+      </c>
+      <c r="B6" t="s">
         <v>51</v>
       </c>
-      <c r="B6" t="s">
-        <v>50</v>
-      </c>
     </row>
-    <row r="7" spans="1:26" ht="14.25" customHeight="1"/>
+    <row r="7" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A7" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>52</v>
+      </c>
+    </row>
     <row r="8" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="9" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="10" spans="1:26" ht="14.25" customHeight="1"/>
@@ -1664,16 +1684,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Z987"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="41" customWidth="1"/>
     <col min="2" max="2" width="51" customWidth="1"/>
-    <col min="3" max="3" width="75.453125" customWidth="1"/>
-    <col min="4" max="26" width="8.7265625" customWidth="1"/>
+    <col min="3" max="3" width="75.42578125" customWidth="1"/>
+    <col min="4" max="26" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="14.25" customHeight="1">
@@ -1710,7 +1730,7 @@
       <c r="Y1" s="1"/>
       <c r="Z1" s="1"/>
     </row>
-    <row r="2" spans="1:26" ht="29">
+    <row r="2" spans="1:26" ht="30">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -1721,7 +1741,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:26" ht="43.5">
+    <row r="3" spans="1:26" ht="45">
       <c r="A3" t="s">
         <v>31</v>
       </c>
@@ -1738,7 +1758,7 @@
         <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>47</v>
+        <v>56</v>
       </c>
       <c r="C5" t="s">
         <v>7</v>
@@ -1835,7 +1855,7 @@
       </c>
     </row>
     <row r="16" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="17" spans="1:3" ht="29">
+    <row r="17" spans="1:3" ht="45">
       <c r="A17" t="s">
         <v>38</v>
       </c>
@@ -1846,21 +1866,21 @@
         <v>40</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="14.5">
+    <row r="18" spans="1:3">
       <c r="A18" t="s">
+        <v>47</v>
+      </c>
+      <c r="B18" t="s">
         <v>48</v>
-      </c>
-      <c r="B18" t="s">
-        <v>49</v>
       </c>
       <c r="C18" s="3"/>
     </row>
-    <row r="19" spans="1:3" ht="14.5">
+    <row r="19" spans="1:3">
       <c r="A19" t="s">
         <v>42</v>
       </c>
       <c r="B19" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C19" s="3"/>
     </row>
@@ -1869,7 +1889,7 @@
         <v>44</v>
       </c>
       <c r="B20" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="14.25" customHeight="1">
@@ -2860,12 +2880,12 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="31.81640625" customWidth="1"/>
-    <col min="2" max="2" width="30.1796875" customWidth="1"/>
-    <col min="3" max="3" width="60.26953125" customWidth="1"/>
-    <col min="4" max="26" width="65.453125" customWidth="1"/>
+    <col min="1" max="1" width="31.85546875" customWidth="1"/>
+    <col min="2" max="2" width="30.140625" customWidth="1"/>
+    <col min="3" max="3" width="60.28515625" customWidth="1"/>
+    <col min="4" max="26" width="65.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="14.25" customHeight="1">
